--- a/datasets/df_validation.xlsx
+++ b/datasets/df_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5375B7E-AD66-4590-A71F-C903CF550668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59028E2-9504-4568-A408-B64F8E723B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
     <t>recarga/pagamento</t>
   </si>
   <si>
-    <t>dificuldade de contatar atendente</t>
+    <t>dificuldade de contatato</t>
   </si>
 </sst>
 </file>
@@ -1102,17 +1102,17 @@
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/datasets/df_validation.xlsx
+++ b/datasets/df_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59028E2-9504-4568-A408-B64F8E723B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5637EE1A-54E4-4381-A62C-0CB1D6CF5B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
     <t>recarga/pagamento</t>
   </si>
   <si>
-    <t>dificuldade de contatato</t>
+    <t>dificuldade de contato</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1112,7 +1112,7 @@
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/datasets/df_validation.xlsx
+++ b/datasets/df_validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5637EE1A-54E4-4381-A62C-0CB1D6CF5B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF0601F-E62B-407F-A31F-975C71CF9CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
   <si>
     <t>problem</t>
   </si>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>cancelamento linha/plano</t>
-  </si>
-  <si>
-    <t>recuperar número/linha</t>
   </si>
   <si>
     <t>chip/sim card</t>
@@ -1089,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1107,15 +1104,14 @@
     <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,14 +1145,11 @@
       <c r="K1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1191,13 +1184,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1234,11 +1224,8 @@
       <c r="L3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1275,11 +1262,8 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1316,11 +1300,8 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1357,11 +1338,8 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1398,11 +1376,8 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1437,13 +1412,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1466,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -1480,11 +1452,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1519,13 +1488,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1562,11 +1528,8 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1601,13 +1564,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -1642,13 +1602,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1685,11 +1642,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1724,13 +1678,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1753,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
@@ -1767,11 +1718,8 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1800,19 +1748,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1849,11 +1794,8 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1890,11 +1832,8 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1931,11 +1870,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1970,13 +1906,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1999,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -2011,13 +1944,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2046,19 +1976,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2095,11 +2022,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2136,11 +2060,8 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2177,11 +2098,8 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2210,19 +2128,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2259,11 +2174,8 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2300,11 +2212,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2327,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
@@ -2339,13 +2248,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2371,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
@@ -2382,11 +2288,8 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2423,11 +2326,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2462,13 +2362,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2503,13 +2400,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2541,16 +2435,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3">
         <v>1</v>
       </c>
-      <c r="M35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2587,11 +2478,8 @@
       <c r="L36" s="3">
         <v>0</v>
       </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2628,11 +2516,8 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2669,11 +2554,8 @@
       <c r="L38" s="3">
         <v>0</v>
       </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2696,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -2710,11 +2592,8 @@
       <c r="L39" s="3">
         <v>0</v>
       </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -2751,11 +2630,8 @@
       <c r="L40" s="3">
         <v>0</v>
       </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2792,11 +2668,8 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2831,13 +2704,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2872,13 +2742,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2901,25 +2768,22 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2942,25 +2806,22 @@
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -2997,11 +2858,8 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3033,16 +2891,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3079,11 +2934,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3115,16 +2967,13 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3147,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
@@ -3161,11 +3010,8 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -3188,25 +3034,22 @@
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3243,11 +3086,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -3284,11 +3124,8 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -3311,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3325,11 +3162,8 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3352,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
@@ -3364,13 +3198,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3393,25 +3224,22 @@
         <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3434,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3448,11 +3276,8 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3481,19 +3306,16 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -3522,19 +3344,16 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3571,11 +3390,8 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -3612,11 +3428,8 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -3648,16 +3461,13 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="3">
         <v>1</v>
       </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
@@ -3694,11 +3504,8 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -3724,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -3735,11 +3542,8 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -3768,19 +3572,16 @@
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3812,16 +3613,13 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="3">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3858,11 +3656,8 @@
       <c r="L67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3899,11 +3694,8 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
@@ -3940,11 +3732,8 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3979,13 +3768,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4014,19 +3800,16 @@
         <v>0</v>
       </c>
       <c r="J71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -4049,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -4063,11 +3846,8 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -4104,11 +3884,8 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -4134,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
@@ -4145,11 +3922,8 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -4175,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
@@ -4186,11 +3960,8 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -4216,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -4227,11 +3998,8 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -4257,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
@@ -4268,11 +4036,8 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -4298,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="I78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
@@ -4309,11 +4074,8 @@
       <c r="L78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4345,16 +4107,13 @@
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="3">
-        <v>1</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -4380,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="3">
         <v>0</v>
@@ -4391,11 +4150,8 @@
       <c r="L80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -4418,25 +4174,22 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -4459,25 +4212,22 @@
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3">
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="3">
-        <v>1</v>
-      </c>
-      <c r="M82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4514,11 +4264,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -4541,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3">
         <v>0</v>
@@ -4553,13 +4300,10 @@
         <v>0</v>
       </c>
       <c r="L84" s="3">
-        <v>0</v>
-      </c>
-      <c r="M84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -4596,11 +4340,8 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>47</v>
       </c>
@@ -4623,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3">
         <v>0</v>
@@ -4637,11 +4378,8 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -4678,11 +4416,8 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -4705,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
@@ -4719,11 +4454,8 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -4760,11 +4492,8 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4784,10 +4513,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
@@ -4801,11 +4530,8 @@
       <c r="L90" s="3">
         <v>0</v>
       </c>
-      <c r="M90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -4831,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4842,11 +4568,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -4883,11 +4606,8 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -4910,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="3">
         <v>0</v>
@@ -4922,13 +4642,10 @@
         <v>0</v>
       </c>
       <c r="L93" s="3">
-        <v>0</v>
-      </c>
-      <c r="M93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -4965,11 +4682,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4998,19 +4712,16 @@
         <v>0</v>
       </c>
       <c r="J95" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="3">
         <v>0</v>
       </c>
-      <c r="M95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -5036,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5047,11 +4758,8 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -5088,11 +4796,8 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -5115,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="H98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" s="3">
         <v>0</v>
@@ -5129,11 +4834,8 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -5170,11 +4872,8 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5206,16 +4905,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="3">
-        <v>1</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -5252,11 +4948,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -5288,16 +4981,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="3">
-        <v>1</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -5334,11 +5024,8 @@
       <c r="L103" s="3">
         <v>0</v>
       </c>
-      <c r="M103" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -5364,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="I104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="3">
         <v>0</v>
@@ -5375,11 +5062,8 @@
       <c r="L104" s="3">
         <v>0</v>
       </c>
-      <c r="M104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -5416,11 +5100,8 @@
       <c r="L105" s="3">
         <v>0</v>
       </c>
-      <c r="M105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -5446,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3">
         <v>0</v>
@@ -5455,13 +5136,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="3">
-        <v>0</v>
-      </c>
-      <c r="M106" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -5498,11 +5176,8 @@
       <c r="L107" s="3">
         <v>0</v>
       </c>
-      <c r="M107" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -5539,11 +5214,8 @@
       <c r="L108" s="3">
         <v>0</v>
       </c>
-      <c r="M108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -5575,16 +5247,13 @@
         <v>0</v>
       </c>
       <c r="K109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="3">
-        <v>1</v>
-      </c>
-      <c r="M109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -5610,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3">
         <v>0</v>
@@ -5621,11 +5290,8 @@
       <c r="L110" s="3">
         <v>0</v>
       </c>
-      <c r="M110" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -5662,11 +5328,8 @@
       <c r="L111" s="3">
         <v>0</v>
       </c>
-      <c r="M111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -5698,16 +5361,13 @@
         <v>0</v>
       </c>
       <c r="K112" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="3">
-        <v>1</v>
-      </c>
-      <c r="M112" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>47</v>
       </c>
@@ -5730,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3">
         <v>0</v>
@@ -5742,13 +5402,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="3">
-        <v>0</v>
-      </c>
-      <c r="M113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -5785,11 +5442,8 @@
       <c r="L114" s="3">
         <v>0</v>
       </c>
-      <c r="M114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -5809,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="3">
         <v>0</v>
@@ -5826,11 +5480,8 @@
       <c r="L115" s="3">
         <v>0</v>
       </c>
-      <c r="M115" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5867,11 +5518,8 @@
       <c r="L116" s="3">
         <v>0</v>
       </c>
-      <c r="M116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -5894,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3">
         <v>0</v>
@@ -5908,11 +5556,8 @@
       <c r="L117" s="3">
         <v>0</v>
       </c>
-      <c r="M117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -5947,13 +5592,10 @@
         <v>0</v>
       </c>
       <c r="L118" s="3">
-        <v>0</v>
-      </c>
-      <c r="M118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -5982,19 +5624,16 @@
         <v>0</v>
       </c>
       <c r="J119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="3">
         <v>0</v>
       </c>
-      <c r="M119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -6026,16 +5665,13 @@
         <v>0</v>
       </c>
       <c r="K120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="3">
-        <v>1</v>
-      </c>
-      <c r="M120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -6067,16 +5703,13 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="3">
-        <v>1</v>
-      </c>
-      <c r="M121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -6113,11 +5746,8 @@
       <c r="L122" s="3">
         <v>0</v>
       </c>
-      <c r="M122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -6149,16 +5779,13 @@
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="3">
-        <v>1</v>
-      </c>
-      <c r="M123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -6187,19 +5814,16 @@
         <v>0</v>
       </c>
       <c r="J124" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
       </c>
-      <c r="M124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -6231,16 +5855,13 @@
         <v>0</v>
       </c>
       <c r="K125" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="3">
-        <v>1</v>
-      </c>
-      <c r="M125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -6277,11 +5898,8 @@
       <c r="L126" s="3">
         <v>0</v>
       </c>
-      <c r="M126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -6310,19 +5928,16 @@
         <v>0</v>
       </c>
       <c r="J127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="3">
         <v>0</v>
       </c>
-      <c r="M127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -6354,16 +5969,13 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="3">
-        <v>1</v>
-      </c>
-      <c r="M128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>47</v>
       </c>
@@ -6400,11 +6012,8 @@
       <c r="L129" s="3">
         <v>0</v>
       </c>
-      <c r="M129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -6441,11 +6050,8 @@
       <c r="L130" s="3">
         <v>0</v>
       </c>
-      <c r="M130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -6482,11 +6088,8 @@
       <c r="L131" s="3">
         <v>0</v>
       </c>
-      <c r="M131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -6518,16 +6121,13 @@
         <v>0</v>
       </c>
       <c r="K132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="3">
-        <v>1</v>
-      </c>
-      <c r="M132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -6559,16 +6159,13 @@
         <v>0</v>
       </c>
       <c r="K133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="3">
-        <v>1</v>
-      </c>
-      <c r="M133" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -6605,11 +6202,8 @@
       <c r="L134" s="3">
         <v>0</v>
       </c>
-      <c r="M134" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -6632,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" s="3">
         <v>0</v>
@@ -6641,16 +6235,13 @@
         <v>0</v>
       </c>
       <c r="K135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="3">
-        <v>1</v>
-      </c>
-      <c r="M135" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -6687,11 +6278,8 @@
       <c r="L136" s="3">
         <v>0</v>
       </c>
-      <c r="M136" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -6714,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="3">
         <v>0</v>
@@ -6728,11 +6316,8 @@
       <c r="L137" s="3">
         <v>0</v>
       </c>
-      <c r="M137" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -6764,16 +6349,13 @@
         <v>0</v>
       </c>
       <c r="K138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="3">
-        <v>1</v>
-      </c>
-      <c r="M138" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -6810,11 +6392,8 @@
       <c r="L139" s="3">
         <v>0</v>
       </c>
-      <c r="M139" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -6846,16 +6425,13 @@
         <v>0</v>
       </c>
       <c r="K140" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="3">
-        <v>1</v>
-      </c>
-      <c r="M140" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -6892,11 +6468,8 @@
       <c r="L141" s="3">
         <v>0</v>
       </c>
-      <c r="M141" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -6933,11 +6506,8 @@
       <c r="L142" s="3">
         <v>0</v>
       </c>
-      <c r="M142" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -6972,13 +6542,10 @@
         <v>0</v>
       </c>
       <c r="L143" s="3">
-        <v>0</v>
-      </c>
-      <c r="M143" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -7001,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -7015,11 +6582,8 @@
       <c r="L144" s="3">
         <v>0</v>
       </c>
-      <c r="M144" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -7042,25 +6606,22 @@
         <v>0</v>
       </c>
       <c r="H145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="3">
         <v>0</v>
       </c>
-      <c r="M145" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -7095,13 +6656,10 @@
         <v>0</v>
       </c>
       <c r="L146" s="3">
-        <v>0</v>
-      </c>
-      <c r="M146" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7138,11 +6696,8 @@
       <c r="L147" s="3">
         <v>0</v>
       </c>
-      <c r="M147" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -7174,16 +6729,13 @@
         <v>0</v>
       </c>
       <c r="K148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" s="3">
-        <v>1</v>
-      </c>
-      <c r="M148" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -7215,16 +6767,13 @@
         <v>0</v>
       </c>
       <c r="K149" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="3">
-        <v>1</v>
-      </c>
-      <c r="M149" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -7247,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -7261,11 +6810,8 @@
       <c r="L150" s="3">
         <v>0</v>
       </c>
-      <c r="M150" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>47</v>
       </c>
@@ -7288,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" s="3">
         <v>0</v>
@@ -7297,16 +6843,13 @@
         <v>0</v>
       </c>
       <c r="K151" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" s="3">
-        <v>1</v>
-      </c>
-      <c r="M151" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -7329,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="H152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3">
         <v>0</v>
@@ -7343,11 +6886,8 @@
       <c r="L152" s="3">
         <v>0</v>
       </c>
-      <c r="M152" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -7370,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="H153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" s="3">
         <v>0</v>
@@ -7382,13 +6922,10 @@
         <v>0</v>
       </c>
       <c r="L153" s="3">
-        <v>0</v>
-      </c>
-      <c r="M153" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -7425,11 +6962,8 @@
       <c r="L154" s="3">
         <v>0</v>
       </c>
-      <c r="M154" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -7452,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" s="3">
         <v>0</v>
@@ -7466,11 +7000,8 @@
       <c r="L155" s="3">
         <v>0</v>
       </c>
-      <c r="M155" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -7507,11 +7038,8 @@
       <c r="L156" s="3">
         <v>0</v>
       </c>
-      <c r="M156" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>27</v>
       </c>
@@ -7534,25 +7062,22 @@
         <v>0</v>
       </c>
       <c r="H157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" s="3">
         <v>0</v>
       </c>
-      <c r="M157" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -7575,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" s="3">
         <v>0</v>
@@ -7584,16 +7109,13 @@
         <v>0</v>
       </c>
       <c r="K158" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" s="3">
-        <v>1</v>
-      </c>
-      <c r="M158" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -7625,16 +7147,13 @@
         <v>0</v>
       </c>
       <c r="K159" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" s="3">
-        <v>1</v>
-      </c>
-      <c r="M159" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -7671,11 +7190,8 @@
       <c r="L160" s="3">
         <v>0</v>
       </c>
-      <c r="M160" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -7698,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" s="3">
         <v>0</v>
@@ -7707,16 +7223,13 @@
         <v>0</v>
       </c>
       <c r="K161" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" s="3">
-        <v>1</v>
-      </c>
-      <c r="M161" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -7753,11 +7266,8 @@
       <c r="L162" s="3">
         <v>0</v>
       </c>
-      <c r="M162" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -7783,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="I163" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="3">
         <v>0</v>
@@ -7794,11 +7304,8 @@
       <c r="L163" s="3">
         <v>0</v>
       </c>
-      <c r="M163" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -7827,19 +7334,16 @@
         <v>0</v>
       </c>
       <c r="J164" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" s="3">
         <v>0</v>
       </c>
-      <c r="M164" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -7876,11 +7380,8 @@
       <c r="L165" s="3">
         <v>0</v>
       </c>
-      <c r="M165" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -7917,11 +7418,8 @@
       <c r="L166" s="3">
         <v>0</v>
       </c>
-      <c r="M166" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -7958,11 +7456,8 @@
       <c r="L167" s="3">
         <v>0</v>
       </c>
-      <c r="M167" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -7999,11 +7494,8 @@
       <c r="L168" s="3">
         <v>0</v>
       </c>
-      <c r="M168" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -8038,13 +7530,10 @@
         <v>0</v>
       </c>
       <c r="L169" s="3">
-        <v>0</v>
-      </c>
-      <c r="M169" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -8076,16 +7565,13 @@
         <v>0</v>
       </c>
       <c r="K170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" s="3">
-        <v>1</v>
-      </c>
-      <c r="M170" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -8120,13 +7606,10 @@
         <v>0</v>
       </c>
       <c r="L171" s="3">
-        <v>0</v>
-      </c>
-      <c r="M171" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -8149,25 +7632,22 @@
         <v>0</v>
       </c>
       <c r="H172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172" s="3">
         <v>0</v>
       </c>
-      <c r="M172" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -8196,19 +7676,16 @@
         <v>0</v>
       </c>
       <c r="J173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173" s="3">
         <v>0</v>
       </c>
-      <c r="M173" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -8231,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="H174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="3">
         <v>0</v>
@@ -8245,11 +7722,8 @@
       <c r="L174" s="3">
         <v>0</v>
       </c>
-      <c r="M174" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -8286,11 +7760,8 @@
       <c r="L175" s="3">
         <v>0</v>
       </c>
-      <c r="M175" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -8327,11 +7798,8 @@
       <c r="L176" s="3">
         <v>0</v>
       </c>
-      <c r="M176" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>47</v>
       </c>
@@ -8368,11 +7836,8 @@
       <c r="L177" s="3">
         <v>0</v>
       </c>
-      <c r="M177" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -8409,11 +7874,8 @@
       <c r="L178" s="3">
         <v>0</v>
       </c>
-      <c r="M178" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -8450,11 +7912,8 @@
       <c r="L179" s="3">
         <v>0</v>
       </c>
-      <c r="M179" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -8491,11 +7950,8 @@
       <c r="L180" s="3">
         <v>0</v>
       </c>
-      <c r="M180" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -8527,16 +7983,13 @@
         <v>0</v>
       </c>
       <c r="K181" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181" s="3">
-        <v>1</v>
-      </c>
-      <c r="M181" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -8565,19 +8018,16 @@
         <v>0</v>
       </c>
       <c r="J182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" s="3">
         <v>0</v>
       </c>
-      <c r="M182" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -8600,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" s="3">
         <v>0</v>
@@ -8614,11 +8064,8 @@
       <c r="L183" s="3">
         <v>0</v>
       </c>
-      <c r="M183" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -8641,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" s="3">
         <v>0</v>
@@ -8655,11 +8102,8 @@
       <c r="L184" s="3">
         <v>0</v>
       </c>
-      <c r="M184" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -8685,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="I185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" s="3">
         <v>0</v>
@@ -8696,11 +8140,8 @@
       <c r="L185" s="3">
         <v>0</v>
       </c>
-      <c r="M185" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -8732,16 +8173,13 @@
         <v>0</v>
       </c>
       <c r="K186" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" s="3">
         <v>1</v>
       </c>
-      <c r="M186" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8778,11 +8216,8 @@
       <c r="L187" s="3">
         <v>0</v>
       </c>
-      <c r="M187" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -8819,11 +8254,8 @@
       <c r="L188" s="3">
         <v>0</v>
       </c>
-      <c r="M188" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -8846,7 +8278,7 @@
         <v>1</v>
       </c>
       <c r="H189" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" s="3">
         <v>0</v>
@@ -8860,11 +8292,8 @@
       <c r="L189" s="3">
         <v>0</v>
       </c>
-      <c r="M189" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -8901,11 +8330,8 @@
       <c r="L190" s="3">
         <v>0</v>
       </c>
-      <c r="M190" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>30</v>
       </c>
@@ -8931,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="I191" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
@@ -8942,11 +8368,8 @@
       <c r="L191" s="3">
         <v>0</v>
       </c>
-      <c r="M191" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>27</v>
       </c>
@@ -8975,19 +8398,16 @@
         <v>0</v>
       </c>
       <c r="J192" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" s="3">
         <v>0</v>
       </c>
-      <c r="M192" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -9024,11 +8444,8 @@
       <c r="L193" s="3">
         <v>0</v>
       </c>
-      <c r="M193" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -9051,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="H194" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" s="3">
         <v>0</v>
@@ -9065,11 +8482,8 @@
       <c r="L194" s="3">
         <v>0</v>
       </c>
-      <c r="M194" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -9106,11 +8520,8 @@
       <c r="L195" s="3">
         <v>0</v>
       </c>
-      <c r="M195" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -9130,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="G196" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" s="3">
         <v>0</v>
@@ -9147,11 +8558,8 @@
       <c r="L196" s="3">
         <v>0</v>
       </c>
-      <c r="M196" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -9188,11 +8596,8 @@
       <c r="L197" s="3">
         <v>0</v>
       </c>
-      <c r="M197" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -9224,16 +8629,13 @@
         <v>0</v>
       </c>
       <c r="K198" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" s="3">
-        <v>1</v>
-      </c>
-      <c r="M198" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -9270,11 +8672,8 @@
       <c r="L199" s="3">
         <v>0</v>
       </c>
-      <c r="M199" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -9300,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="I200" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" s="3">
         <v>0</v>
@@ -9311,11 +8710,8 @@
       <c r="L200" s="3">
         <v>0</v>
       </c>
-      <c r="M200" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -9352,11 +8748,8 @@
       <c r="L201" s="3">
         <v>0</v>
       </c>
-      <c r="M201" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -9393,11 +8786,8 @@
       <c r="L202" s="3">
         <v>0</v>
       </c>
-      <c r="M202" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>47</v>
       </c>
@@ -9426,20 +8816,17 @@
         <v>0</v>
       </c>
       <c r="J203" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" s="3">
         <v>0</v>
       </c>
-      <c r="M203" s="3">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M203" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L203" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>